--- a/thresholds/IGCSE/mathematics/mathematics-thresholds.xlsx
+++ b/thresholds/IGCSE/mathematics/mathematics-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,189 +489,214 @@
           <t>date</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>AX 11,31</t>
+          <t>BX 21,41</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="F2" t="n">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="G2" t="n">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H2" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>June 2022</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>mathematics</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AY 12,32</t>
+          <t>BY 22,42</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="F3" t="n">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="G3" t="n">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="H3" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I3" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>June 2022</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>mathematics</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,33</t>
+          <t>BZ 23,43</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F4" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G4" t="n">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="H4" t="n">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="I4" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>June 2022</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>mathematics</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>BX 21,41</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C5" t="n">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="D5" t="n">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="E5" t="n">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="F5" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G5" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H5" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>June 2022</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>mathematics</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42</t>
+          <t>BX 21,41</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>200</v>
       </c>
       <c r="C6" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D6" t="n">
         <v>127</v>
       </c>
       <c r="E6" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="G6" t="n">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H6" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -681,36 +706,41 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>June 2022</t>
+          <t>November 2022</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>mathematics</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>BZ 23,43</t>
+          <t>BY 22,42</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>200</v>
       </c>
       <c r="C7" t="n">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="D7" t="n">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="E7" t="n">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="F7" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G7" t="n">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="H7" t="n">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -720,192 +750,217 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>June 2022</t>
+          <t>November 2022</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>mathematics</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>P1 50</t>
+          <t>BZ 23,43</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="C8" t="n">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="D8" t="n">
+        <v>121</v>
+      </c>
+      <c r="E8" t="n">
+        <v>94</v>
+      </c>
+      <c r="F8" t="n">
         <v>67</v>
       </c>
-      <c r="E8" t="n">
-        <v>58</v>
-      </c>
-      <c r="F8" t="n">
-        <v>49</v>
-      </c>
       <c r="G8" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H8" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I8" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>June 2022</t>
+          <t>November 2022</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>mathematics</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AX 11,31</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F9" t="n">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="G9" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="H9" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I9" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J9" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>November 2022</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>mathematics</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AY 12,32</t>
+          <t>BX 21,41</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="F10" t="n">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="G10" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H10" t="n">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I10" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>November 2022</t>
+          <t>November 2023</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>mathematics</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,33</t>
+          <t>BY 22,42</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="F11" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G11" t="n">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H11" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I11" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>November 2022</t>
+          <t>November 2023</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>mathematics</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>BX 21,41</t>
+          <t>BZ 23,43</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>200</v>
       </c>
       <c r="C12" t="n">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="D12" t="n">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="E12" t="n">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="F12" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G12" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H12" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -915,75 +970,85 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>November 2022</t>
+          <t>November 2023</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>mathematics</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C13" t="n">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="D13" t="n">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="E13" t="n">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="F13" t="n">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="G13" t="n">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="H13" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>November 2022</t>
+          <t>November 2023</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>mathematics</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>BZ 23,43</t>
+          <t>BX 21,41</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>200</v>
       </c>
       <c r="C14" t="n">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="D14" t="n">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="E14" t="n">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="F14" t="n">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="G14" t="n">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H14" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -993,163 +1058,188 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>November 2022</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>mathematics</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>P1 50</t>
+          <t>BY 22,42</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="C15" t="n">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="D15" t="n">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="E15" t="n">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="F15" t="n">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H15" t="n">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="I15" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>November 2022</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>mathematics</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AX 11,31</t>
+          <t>BZ 23,43</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="F16" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G16" t="n">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="H16" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I16" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>mathematics</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AY 12,32</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F17" t="n">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="G17" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="H17" t="n">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="I17" t="n">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="J17" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>mathematics</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,33</t>
+          <t>BY 22,42</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="F18" t="n">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="G18" t="n">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="H18" t="n">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="I18" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>March 2022</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>mathematics</t>
         </is>
       </c>
     </row>
@@ -1163,22 +1253,22 @@
         <v>200</v>
       </c>
       <c r="C19" t="n">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="D19" t="n">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E19" t="n">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F19" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G19" t="n">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H19" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1188,7 +1278,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2023</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>mathematics</t>
         </is>
       </c>
     </row>
@@ -1202,22 +1297,22 @@
         <v>200</v>
       </c>
       <c r="C20" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D20" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E20" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F20" t="n">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G20" t="n">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="H20" t="n">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1227,7 +1322,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2023</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>mathematics</t>
         </is>
       </c>
     </row>
@@ -1241,22 +1341,22 @@
         <v>200</v>
       </c>
       <c r="C21" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D21" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E21" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F21" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G21" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H21" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1266,7 +1366,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2023</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>mathematics</t>
         </is>
       </c>
     </row>
@@ -1305,192 +1410,217 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2023</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>mathematics</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AX 11,31</t>
+          <t>BX 21,41</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F23" t="n">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G23" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="H23" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I23" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2024</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>mathematics</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AY 12,32</t>
+          <t>BY 22,42</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="F24" t="n">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="G24" t="n">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="H24" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="I24" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2024</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>mathematics</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,33</t>
+          <t>BZ 23,43</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="F25" t="n">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="G25" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="H25" t="n">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="I25" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2024</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>mathematics</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>BX 21,41</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C26" t="n">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="D26" t="n">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="E26" t="n">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="F26" t="n">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="G26" t="n">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="H26" t="n">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2024</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>mathematics</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42</t>
+          <t>BX 21,41</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>200</v>
       </c>
       <c r="C27" t="n">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D27" t="n">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="E27" t="n">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="G27" t="n">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="H27" t="n">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1500,36 +1630,41 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>mathematics</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>BZ 23,43</t>
+          <t>BY 22,42</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>200</v>
       </c>
       <c r="C28" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D28" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E28" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F28" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G28" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H28" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1539,85 +1674,100 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>mathematics</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>P1 50</t>
+          <t>BZ 23,43</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="C29" t="n">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="D29" t="n">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="E29" t="n">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="F29" t="n">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="G29" t="n">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="H29" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="I29" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>mathematics</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AY 12,32</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F30" t="n">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="G30" t="n">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="H30" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="I30" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="J30" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>March 2022</t>
+          <t>June 2025</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>mathematics</t>
         </is>
       </c>
     </row>
@@ -1628,25 +1778,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="C31" t="n">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D31" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="E31" t="n">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="F31" t="n">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="G31" t="n">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H31" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1656,1062 +1806,98 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>March 2022</t>
+          <t>March 2023</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>mathematics</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AX 11,31</t>
+          <t>BY 22,42</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="F32" t="n">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="G32" t="n">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="H32" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="I32" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>March 2024</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>mathematics</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AY 12,32</t>
+          <t>BY 22,42</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="F33" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G33" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H33" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I33" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>June 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>AZ 13,33</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>160</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>84</v>
-      </c>
-      <c r="G34" t="n">
-        <v>70</v>
-      </c>
-      <c r="H34" t="n">
-        <v>56</v>
-      </c>
-      <c r="I34" t="n">
-        <v>43</v>
-      </c>
-      <c r="J34" t="n">
-        <v>30</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>June 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>BX 21,41</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>200</v>
-      </c>
-      <c r="C35" t="n">
-        <v>158</v>
-      </c>
-      <c r="D35" t="n">
-        <v>132</v>
-      </c>
-      <c r="E35" t="n">
-        <v>106</v>
-      </c>
-      <c r="F35" t="n">
-        <v>81</v>
-      </c>
-      <c r="G35" t="n">
-        <v>62</v>
-      </c>
-      <c r="H35" t="n">
-        <v>44</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>June 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>BY 22,42</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>200</v>
-      </c>
-      <c r="C36" t="n">
-        <v>174</v>
-      </c>
-      <c r="D36" t="n">
-        <v>148</v>
-      </c>
-      <c r="E36" t="n">
-        <v>113</v>
-      </c>
-      <c r="F36" t="n">
-        <v>78</v>
-      </c>
-      <c r="G36" t="n">
-        <v>61</v>
-      </c>
-      <c r="H36" t="n">
-        <v>44</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>June 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>BZ 23,43</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>200</v>
-      </c>
-      <c r="C37" t="n">
-        <v>173</v>
-      </c>
-      <c r="D37" t="n">
-        <v>146</v>
-      </c>
-      <c r="E37" t="n">
-        <v>117</v>
-      </c>
-      <c r="F37" t="n">
-        <v>88</v>
-      </c>
-      <c r="G37" t="n">
-        <v>66</v>
-      </c>
-      <c r="H37" t="n">
-        <v>45</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>June 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>P1 50</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>90</v>
-      </c>
-      <c r="C38" t="n">
-        <v>77</v>
-      </c>
-      <c r="D38" t="n">
-        <v>67</v>
-      </c>
-      <c r="E38" t="n">
-        <v>57</v>
-      </c>
-      <c r="F38" t="n">
-        <v>47</v>
-      </c>
-      <c r="G38" t="n">
-        <v>38</v>
-      </c>
-      <c r="H38" t="n">
-        <v>30</v>
-      </c>
-      <c r="I38" t="n">
-        <v>21</v>
-      </c>
-      <c r="J38" t="n">
-        <v>12</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>June 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>AX 11,31</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>160</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>77</v>
-      </c>
-      <c r="G39" t="n">
-        <v>63</v>
-      </c>
-      <c r="H39" t="n">
-        <v>50</v>
-      </c>
-      <c r="I39" t="n">
-        <v>36</v>
-      </c>
-      <c r="J39" t="n">
-        <v>22</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>June 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>AY 12,32</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>160</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>89</v>
-      </c>
-      <c r="G40" t="n">
-        <v>72</v>
-      </c>
-      <c r="H40" t="n">
-        <v>55</v>
-      </c>
-      <c r="I40" t="n">
-        <v>38</v>
-      </c>
-      <c r="J40" t="n">
-        <v>21</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>June 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>AZ 13,33</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>160</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>93</v>
-      </c>
-      <c r="G41" t="n">
-        <v>79</v>
-      </c>
-      <c r="H41" t="n">
-        <v>65</v>
-      </c>
-      <c r="I41" t="n">
-        <v>51</v>
-      </c>
-      <c r="J41" t="n">
-        <v>37</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>June 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>BX 21,41</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>200</v>
-      </c>
-      <c r="C42" t="n">
-        <v>152</v>
-      </c>
-      <c r="D42" t="n">
-        <v>125</v>
-      </c>
-      <c r="E42" t="n">
-        <v>98</v>
-      </c>
-      <c r="F42" t="n">
-        <v>72</v>
-      </c>
-      <c r="G42" t="n">
-        <v>56</v>
-      </c>
-      <c r="H42" t="n">
-        <v>40</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>June 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>BY 22,42</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>200</v>
-      </c>
-      <c r="C43" t="n">
-        <v>175</v>
-      </c>
-      <c r="D43" t="n">
-        <v>150</v>
-      </c>
-      <c r="E43" t="n">
-        <v>117</v>
-      </c>
-      <c r="F43" t="n">
-        <v>85</v>
-      </c>
-      <c r="G43" t="n">
-        <v>66</v>
-      </c>
-      <c r="H43" t="n">
-        <v>48</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>June 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>BZ 23,43</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>200</v>
-      </c>
-      <c r="C44" t="n">
-        <v>172</v>
-      </c>
-      <c r="D44" t="n">
-        <v>144</v>
-      </c>
-      <c r="E44" t="n">
-        <v>114</v>
-      </c>
-      <c r="F44" t="n">
-        <v>85</v>
-      </c>
-      <c r="G44" t="n">
-        <v>65</v>
-      </c>
-      <c r="H44" t="n">
-        <v>45</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>June 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>P1 50</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>90</v>
-      </c>
-      <c r="C45" t="n">
-        <v>77</v>
-      </c>
-      <c r="D45" t="n">
-        <v>67</v>
-      </c>
-      <c r="E45" t="n">
-        <v>57</v>
-      </c>
-      <c r="F45" t="n">
-        <v>47</v>
-      </c>
-      <c r="G45" t="n">
-        <v>38</v>
-      </c>
-      <c r="H45" t="n">
-        <v>30</v>
-      </c>
-      <c r="I45" t="n">
-        <v>21</v>
-      </c>
-      <c r="J45" t="n">
-        <v>12</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>June 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>AX 11,31</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>160</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>86</v>
-      </c>
-      <c r="G46" t="n">
-        <v>72</v>
-      </c>
-      <c r="H46" t="n">
-        <v>59</v>
-      </c>
-      <c r="I46" t="n">
-        <v>46</v>
-      </c>
-      <c r="J46" t="n">
-        <v>33</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>June 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>AY 12,32</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>160</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>86</v>
-      </c>
-      <c r="G47" t="n">
-        <v>68</v>
-      </c>
-      <c r="H47" t="n">
-        <v>51</v>
-      </c>
-      <c r="I47" t="n">
-        <v>34</v>
-      </c>
-      <c r="J47" t="n">
-        <v>17</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>June 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>AZ 13,33</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>160</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>92</v>
-      </c>
-      <c r="G48" t="n">
-        <v>77</v>
-      </c>
-      <c r="H48" t="n">
-        <v>62</v>
-      </c>
-      <c r="I48" t="n">
-        <v>48</v>
-      </c>
-      <c r="J48" t="n">
-        <v>34</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>June 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>BX 21,41</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>200</v>
-      </c>
-      <c r="C49" t="n">
-        <v>156</v>
-      </c>
-      <c r="D49" t="n">
-        <v>131</v>
-      </c>
-      <c r="E49" t="n">
-        <v>106</v>
-      </c>
-      <c r="F49" t="n">
-        <v>81</v>
-      </c>
-      <c r="G49" t="n">
-        <v>68</v>
-      </c>
-      <c r="H49" t="n">
-        <v>55</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>June 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>BY 22,42</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>200</v>
-      </c>
-      <c r="C50" t="n">
-        <v>176</v>
-      </c>
-      <c r="D50" t="n">
-        <v>152</v>
-      </c>
-      <c r="E50" t="n">
-        <v>119</v>
-      </c>
-      <c r="F50" t="n">
-        <v>86</v>
-      </c>
-      <c r="G50" t="n">
-        <v>68</v>
-      </c>
-      <c r="H50" t="n">
-        <v>51</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>June 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>BZ 23,43</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>200</v>
-      </c>
-      <c r="C51" t="n">
-        <v>178</v>
-      </c>
-      <c r="D51" t="n">
-        <v>157</v>
-      </c>
-      <c r="E51" t="n">
-        <v>127</v>
-      </c>
-      <c r="F51" t="n">
-        <v>97</v>
-      </c>
-      <c r="G51" t="n">
-        <v>74</v>
-      </c>
-      <c r="H51" t="n">
-        <v>52</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>June 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>P1 50</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>90</v>
-      </c>
-      <c r="C52" t="n">
-        <v>77</v>
-      </c>
-      <c r="D52" t="n">
-        <v>67</v>
-      </c>
-      <c r="E52" t="n">
-        <v>57</v>
-      </c>
-      <c r="F52" t="n">
-        <v>47</v>
-      </c>
-      <c r="G52" t="n">
-        <v>38</v>
-      </c>
-      <c r="H52" t="n">
-        <v>30</v>
-      </c>
-      <c r="I52" t="n">
-        <v>21</v>
-      </c>
-      <c r="J52" t="n">
-        <v>12</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>June 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>AY 12,32</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>160</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>97</v>
-      </c>
-      <c r="G53" t="n">
-        <v>78</v>
-      </c>
-      <c r="H53" t="n">
-        <v>60</v>
-      </c>
-      <c r="I53" t="n">
-        <v>42</v>
-      </c>
-      <c r="J53" t="n">
-        <v>24</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>March 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>BY 22,42</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>200</v>
-      </c>
-      <c r="C54" t="n">
-        <v>172</v>
-      </c>
-      <c r="D54" t="n">
-        <v>145</v>
-      </c>
-      <c r="E54" t="n">
-        <v>114</v>
-      </c>
-      <c r="F54" t="n">
-        <v>84</v>
-      </c>
-      <c r="G54" t="n">
-        <v>63</v>
-      </c>
-      <c r="H54" t="n">
-        <v>43</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>March 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>AY 12,32</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>160</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>97</v>
-      </c>
-      <c r="G55" t="n">
-        <v>79</v>
-      </c>
-      <c r="H55" t="n">
-        <v>62</v>
-      </c>
-      <c r="I55" t="n">
-        <v>45</v>
-      </c>
-      <c r="J55" t="n">
-        <v>28</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>March 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>BY 22,42</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>200</v>
-      </c>
-      <c r="C56" t="n">
-        <v>181</v>
-      </c>
-      <c r="D56" t="n">
-        <v>162</v>
-      </c>
-      <c r="E56" t="n">
-        <v>132</v>
-      </c>
-      <c r="F56" t="n">
-        <v>103</v>
-      </c>
-      <c r="G56" t="n">
-        <v>86</v>
-      </c>
-      <c r="H56" t="n">
-        <v>70</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>March 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>AY 12,32</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>160</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>101</v>
-      </c>
-      <c r="G57" t="n">
-        <v>83</v>
-      </c>
-      <c r="H57" t="n">
-        <v>66</v>
-      </c>
-      <c r="I57" t="n">
-        <v>48</v>
-      </c>
-      <c r="J57" t="n">
-        <v>30</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
           <t>March 2025</t>
         </is>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>BY 22,42</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>200</v>
-      </c>
-      <c r="C58" t="n">
-        <v>180</v>
-      </c>
-      <c r="D58" t="n">
-        <v>161</v>
-      </c>
-      <c r="E58" t="n">
-        <v>128</v>
-      </c>
-      <c r="F58" t="n">
-        <v>95</v>
-      </c>
-      <c r="G58" t="n">
-        <v>78</v>
-      </c>
-      <c r="H58" t="n">
-        <v>62</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>March 2025</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/thresholds/IGCSE/mathematics/mathematics-thresholds.xlsx
+++ b/thresholds/IGCSE/mathematics/mathematics-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,214 +489,195 @@
           <t>date</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>BX 21,41</t>
+          <t>AX 11,31</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C2" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="G2" t="n">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H2" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>June 2022</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>mathematics</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42</t>
+          <t>AY 12,32</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C3" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>79</v>
+      </c>
+      <c r="G3" t="n">
         <v>63</v>
       </c>
-      <c r="G3" t="n">
-        <v>46</v>
-      </c>
       <c r="H3" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>June 2022</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>mathematics</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>BZ 23,43</t>
+          <t>AZ 13,33</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C4" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G4" t="n">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="H4" t="n">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>June 2022</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>mathematics</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>P1 50</t>
+          <t>BX 21,41</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="C5" t="n">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="D5" t="n">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="E5" t="n">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="F5" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G5" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H5" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I5" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>June 2022</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>mathematics</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>BX 21,41</t>
+          <t>BY 22,42</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>200</v>
       </c>
       <c r="C6" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D6" t="n">
         <v>127</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F6" t="n">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G6" t="n">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H6" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -706,41 +687,36 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>November 2022</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>mathematics</t>
+          <t>June 2022</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42</t>
+          <t>BZ 23,43</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>200</v>
       </c>
       <c r="C7" t="n">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D7" t="n">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E7" t="n">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F7" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G7" t="n">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="H7" t="n">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -750,173 +726,159 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>November 2022</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>mathematics</t>
+          <t>June 2022</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>BZ 23,43</t>
+          <t>AX 11,31</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C8" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="G8" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="H8" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>November 2022</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>mathematics</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>P1 50</t>
+          <t>AY 12,32</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="C9" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="G9" t="n">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="H9" t="n">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="I9" t="n">
-        <v>22</v>
-      </c>
-      <c r="J9" t="n">
-        <v>13</v>
+        <v>50</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>November 2022</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>mathematics</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>BX 21,41</t>
+          <t>AZ 13,33</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C10" t="n">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G10" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H10" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>mathematics</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42</t>
+          <t>BX 21,41</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>200</v>
       </c>
       <c r="C11" t="n">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D11" t="n">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E11" t="n">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="G11" t="n">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H11" t="n">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -926,41 +888,36 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>mathematics</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>BZ 23,43</t>
+          <t>BY 22,42</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>200</v>
       </c>
       <c r="C12" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D12" t="n">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E12" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F12" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H12" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -970,232 +927,208 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>mathematics</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>P1 50</t>
+          <t>BZ 23,43</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="C13" t="n">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="D13" t="n">
+        <v>121</v>
+      </c>
+      <c r="E13" t="n">
+        <v>94</v>
+      </c>
+      <c r="F13" t="n">
         <v>67</v>
       </c>
-      <c r="E13" t="n">
-        <v>57</v>
-      </c>
-      <c r="F13" t="n">
-        <v>47</v>
-      </c>
       <c r="G13" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H13" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I13" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>mathematics</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>BX 21,41</t>
+          <t>AX 11,31</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C14" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G14" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H14" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>mathematics</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42</t>
+          <t>AY 12,32</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C15" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G15" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H15" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>mathematics</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>BZ 23,43</t>
+          <t>AZ 13,33</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C16" t="n">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G16" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="H16" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>mathematics</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>P1 50</t>
+          <t>BX 21,41</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="C17" t="n">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="D17" t="n">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="E17" t="n">
+        <v>118</v>
+      </c>
+      <c r="F17" t="n">
+        <v>91</v>
+      </c>
+      <c r="G17" t="n">
+        <v>74</v>
+      </c>
+      <c r="H17" t="n">
         <v>57</v>
       </c>
-      <c r="F17" t="n">
-        <v>47</v>
-      </c>
-      <c r="G17" t="n">
-        <v>38</v>
-      </c>
-      <c r="H17" t="n">
-        <v>30</v>
-      </c>
       <c r="I17" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>mathematics</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
@@ -1206,25 +1139,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="C18" t="n">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D18" t="n">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="E18" t="n">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F18" t="n">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="G18" t="n">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="H18" t="n">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1234,41 +1167,36 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>March 2022</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>mathematics</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>BX 21,41</t>
+          <t>BZ 23,43</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>200</v>
       </c>
       <c r="C19" t="n">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="D19" t="n">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E19" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F19" t="n">
         <v>81</v>
       </c>
       <c r="G19" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H19" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1278,144 +1206,130 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>June 2023</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>mathematics</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42</t>
+          <t>AX 11,31</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C20" t="n">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G20" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H20" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>June 2023</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>mathematics</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>BZ 23,43</t>
+          <t>AY 12,32</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C21" t="n">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G21" t="n">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="H21" t="n">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>June 2023</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>mathematics</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>P1 50</t>
+          <t>AZ 13,33</t>
         </is>
       </c>
       <c r="B22" t="n">
+        <v>160</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>108</v>
+      </c>
+      <c r="G22" t="n">
         <v>90</v>
       </c>
-      <c r="C22" t="n">
-        <v>77</v>
-      </c>
-      <c r="D22" t="n">
-        <v>67</v>
-      </c>
-      <c r="E22" t="n">
-        <v>57</v>
-      </c>
-      <c r="F22" t="n">
-        <v>47</v>
-      </c>
-      <c r="G22" t="n">
-        <v>38</v>
-      </c>
       <c r="H22" t="n">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="I22" t="n">
-        <v>21</v>
-      </c>
-      <c r="J22" t="n">
-        <v>12</v>
+        <v>56</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>June 2023</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>mathematics</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1343,22 @@
         <v>200</v>
       </c>
       <c r="C23" t="n">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="D23" t="n">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="E23" t="n">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="F23" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="G23" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H23" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1454,12 +1368,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>June 2024</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>mathematics</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
@@ -1473,22 +1382,22 @@
         <v>200</v>
       </c>
       <c r="C24" t="n">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D24" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E24" t="n">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="F24" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G24" t="n">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="H24" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1498,12 +1407,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>June 2024</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>mathematics</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
@@ -1517,19 +1421,19 @@
         <v>200</v>
       </c>
       <c r="C25" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D25" t="n">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E25" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F25" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G25" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H25" t="n">
         <v>45</v>
@@ -1542,232 +1446,208 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>June 2024</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>mathematics</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>P1 50</t>
+          <t>BY 22,42</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="D26" t="n">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="E26" t="n">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="F26" t="n">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="G26" t="n">
+        <v>51</v>
+      </c>
+      <c r="H26" t="n">
         <v>38</v>
       </c>
-      <c r="H26" t="n">
-        <v>30</v>
-      </c>
       <c r="I26" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>June 2024</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>mathematics</t>
+          <t>March 2022</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>BX 21,41</t>
+          <t>AX 11,31</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C27" t="n">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G27" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H27" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>June 2025</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>mathematics</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42</t>
+          <t>AY 12,32</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C28" t="n">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G28" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H28" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>June 2025</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>mathematics</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>BZ 23,43</t>
+          <t>AZ 13,33</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C29" t="n">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G29" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H29" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>June 2025</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>mathematics</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>P1 50</t>
+          <t>BX 21,41</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="C30" t="n">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="D30" t="n">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="E30" t="n">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="F30" t="n">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="G30" t="n">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="H30" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I30" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>June 2025</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>mathematics</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
@@ -1781,22 +1661,22 @@
         <v>200</v>
       </c>
       <c r="C31" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D31" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E31" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F31" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G31" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H31" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1806,41 +1686,36 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>March 2023</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>mathematics</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42</t>
+          <t>BZ 23,43</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>200</v>
       </c>
       <c r="C32" t="n">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D32" t="n">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E32" t="n">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F32" t="n">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="G32" t="n">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H32" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1850,54 +1725,729 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>March 2024</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>mathematics</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
+          <t>AX 11,31</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>160</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>77</v>
+      </c>
+      <c r="G33" t="n">
+        <v>63</v>
+      </c>
+      <c r="H33" t="n">
+        <v>50</v>
+      </c>
+      <c r="I33" t="n">
+        <v>36</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>AY 12,32</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>160</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>89</v>
+      </c>
+      <c r="G34" t="n">
+        <v>72</v>
+      </c>
+      <c r="H34" t="n">
+        <v>55</v>
+      </c>
+      <c r="I34" t="n">
+        <v>38</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>AZ 13,33</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>160</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>93</v>
+      </c>
+      <c r="G35" t="n">
+        <v>79</v>
+      </c>
+      <c r="H35" t="n">
+        <v>65</v>
+      </c>
+      <c r="I35" t="n">
+        <v>51</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>BX 21,41</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>200</v>
+      </c>
+      <c r="C36" t="n">
+        <v>152</v>
+      </c>
+      <c r="D36" t="n">
+        <v>125</v>
+      </c>
+      <c r="E36" t="n">
+        <v>98</v>
+      </c>
+      <c r="F36" t="n">
+        <v>72</v>
+      </c>
+      <c r="G36" t="n">
+        <v>56</v>
+      </c>
+      <c r="H36" t="n">
+        <v>40</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
           <t>BY 22,42</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B37" t="n">
         <v>200</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C37" t="n">
+        <v>175</v>
+      </c>
+      <c r="D37" t="n">
+        <v>150</v>
+      </c>
+      <c r="E37" t="n">
+        <v>117</v>
+      </c>
+      <c r="F37" t="n">
+        <v>85</v>
+      </c>
+      <c r="G37" t="n">
+        <v>66</v>
+      </c>
+      <c r="H37" t="n">
+        <v>48</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>BZ 23,43</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>200</v>
+      </c>
+      <c r="C38" t="n">
+        <v>172</v>
+      </c>
+      <c r="D38" t="n">
+        <v>144</v>
+      </c>
+      <c r="E38" t="n">
+        <v>114</v>
+      </c>
+      <c r="F38" t="n">
+        <v>85</v>
+      </c>
+      <c r="G38" t="n">
+        <v>65</v>
+      </c>
+      <c r="H38" t="n">
+        <v>45</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>AX 11,31</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>160</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>86</v>
+      </c>
+      <c r="G39" t="n">
+        <v>72</v>
+      </c>
+      <c r="H39" t="n">
+        <v>59</v>
+      </c>
+      <c r="I39" t="n">
+        <v>46</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>AY 12,32</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>160</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>86</v>
+      </c>
+      <c r="G40" t="n">
+        <v>68</v>
+      </c>
+      <c r="H40" t="n">
+        <v>51</v>
+      </c>
+      <c r="I40" t="n">
+        <v>34</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>AZ 13,33</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>160</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>92</v>
+      </c>
+      <c r="G41" t="n">
+        <v>77</v>
+      </c>
+      <c r="H41" t="n">
+        <v>62</v>
+      </c>
+      <c r="I41" t="n">
+        <v>48</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>BX 21,41</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>200</v>
+      </c>
+      <c r="C42" t="n">
+        <v>156</v>
+      </c>
+      <c r="D42" t="n">
+        <v>131</v>
+      </c>
+      <c r="E42" t="n">
+        <v>106</v>
+      </c>
+      <c r="F42" t="n">
+        <v>81</v>
+      </c>
+      <c r="G42" t="n">
+        <v>68</v>
+      </c>
+      <c r="H42" t="n">
+        <v>55</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>BY 22,42</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>200</v>
+      </c>
+      <c r="C43" t="n">
+        <v>176</v>
+      </c>
+      <c r="D43" t="n">
+        <v>152</v>
+      </c>
+      <c r="E43" t="n">
+        <v>119</v>
+      </c>
+      <c r="F43" t="n">
+        <v>86</v>
+      </c>
+      <c r="G43" t="n">
+        <v>68</v>
+      </c>
+      <c r="H43" t="n">
+        <v>51</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>BZ 23,43</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>200</v>
+      </c>
+      <c r="C44" t="n">
+        <v>178</v>
+      </c>
+      <c r="D44" t="n">
+        <v>157</v>
+      </c>
+      <c r="E44" t="n">
+        <v>127</v>
+      </c>
+      <c r="F44" t="n">
+        <v>97</v>
+      </c>
+      <c r="G44" t="n">
+        <v>74</v>
+      </c>
+      <c r="H44" t="n">
+        <v>52</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>AY 12,32</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>160</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>97</v>
+      </c>
+      <c r="G45" t="n">
+        <v>78</v>
+      </c>
+      <c r="H45" t="n">
+        <v>60</v>
+      </c>
+      <c r="I45" t="n">
+        <v>42</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>March 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>BY 22,42</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>200</v>
+      </c>
+      <c r="C46" t="n">
+        <v>172</v>
+      </c>
+      <c r="D46" t="n">
+        <v>145</v>
+      </c>
+      <c r="E46" t="n">
+        <v>114</v>
+      </c>
+      <c r="F46" t="n">
+        <v>84</v>
+      </c>
+      <c r="G46" t="n">
+        <v>63</v>
+      </c>
+      <c r="H46" t="n">
+        <v>43</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>March 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>AY 12,32</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>160</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>97</v>
+      </c>
+      <c r="G47" t="n">
+        <v>79</v>
+      </c>
+      <c r="H47" t="n">
+        <v>62</v>
+      </c>
+      <c r="I47" t="n">
+        <v>45</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>March 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>BY 22,42</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>200</v>
+      </c>
+      <c r="C48" t="n">
+        <v>181</v>
+      </c>
+      <c r="D48" t="n">
+        <v>162</v>
+      </c>
+      <c r="E48" t="n">
+        <v>132</v>
+      </c>
+      <c r="F48" t="n">
+        <v>103</v>
+      </c>
+      <c r="G48" t="n">
+        <v>86</v>
+      </c>
+      <c r="H48" t="n">
+        <v>70</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>March 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>AY 12,32</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>160</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>101</v>
+      </c>
+      <c r="G49" t="n">
+        <v>83</v>
+      </c>
+      <c r="H49" t="n">
+        <v>66</v>
+      </c>
+      <c r="I49" t="n">
+        <v>48</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>March 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>BY 22,42</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>200</v>
+      </c>
+      <c r="C50" t="n">
         <v>180</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D50" t="n">
         <v>161</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E50" t="n">
         <v>128</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F50" t="n">
         <v>95</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G50" t="n">
         <v>78</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H50" t="n">
         <v>62</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr">
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>March 2025</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/thresholds/IGCSE/mathematics/mathematics-thresholds.xlsx
+++ b/thresholds/IGCSE/mathematics/mathematics-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,48 +733,48 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AX 11,31</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F8" t="n">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="G8" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="H8" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I8" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>November 2022</t>
+          <t>June 2022</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AY 12,32</t>
+          <t>AX 11,31</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -790,20 +790,20 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="G9" t="n">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="H9" t="n">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -815,7 +815,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,33</t>
+          <t>AY 12,32</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -831,20 +831,20 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="G10" t="n">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="H10" t="n">
+        <v>68</v>
+      </c>
+      <c r="I10" t="n">
         <v>50</v>
       </c>
-      <c r="I10" t="n">
-        <v>33</v>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -856,35 +856,37 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>BX 21,41</t>
+          <t>AZ 13,33</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C11" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G11" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="H11" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -895,29 +897,29 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42</t>
+          <t>BX 21,41</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>200</v>
       </c>
       <c r="C12" t="n">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D12" t="n">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E12" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F12" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G12" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H12" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -934,29 +936,29 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>BZ 23,43</t>
+          <t>BY 22,42</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>200</v>
       </c>
       <c r="C13" t="n">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="D13" t="n">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="E13" t="n">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="F13" t="n">
+        <v>80</v>
+      </c>
+      <c r="G13" t="n">
         <v>67</v>
       </c>
-      <c r="G13" t="n">
-        <v>52</v>
-      </c>
       <c r="H13" t="n">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -973,89 +975,87 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AX 11,31</t>
+          <t>BZ 23,43</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="F14" t="n">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="G14" t="n">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="H14" t="n">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I14" t="n">
-        <v>40</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AY 12,32</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F15" t="n">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="G15" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H15" t="n">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I15" t="n">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,33</t>
+          <t>AX 11,31</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1071,20 +1071,20 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G16" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H16" t="n">
         <v>57</v>
       </c>
       <c r="I16" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1096,35 +1096,37 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>BX 21,41</t>
+          <t>AY 12,32</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C17" t="n">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="G17" t="n">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="H17" t="n">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1135,35 +1137,37 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42</t>
+          <t>AZ 13,33</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C18" t="n">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G18" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H18" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1174,29 +1178,29 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>BZ 23,43</t>
+          <t>BX 21,41</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>200</v>
       </c>
       <c r="C19" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D19" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E19" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F19" t="n">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G19" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H19" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1213,158 +1217,156 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AX 11,31</t>
+          <t>BY 22,42</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="F20" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G20" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H20" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="I20" t="n">
-        <v>35</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AY 12,32</t>
+          <t>BZ 23,43</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="F21" t="n">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="G21" t="n">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="H21" t="n">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I21" t="n">
-        <v>57</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,33</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F22" t="n">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="G22" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="H22" t="n">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="I22" t="n">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>BX 21,41</t>
+          <t>AX 11,31</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C23" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G23" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H23" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1375,35 +1377,37 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42</t>
+          <t>AY 12,32</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C24" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G24" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H24" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1414,35 +1418,37 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>BZ 23,43</t>
+          <t>AZ 13,33</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C25" t="n">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="G25" t="n">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="H25" t="n">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1453,29 +1459,29 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42</t>
+          <t>BX 21,41</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="C26" t="n">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D26" t="n">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E26" t="n">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F26" t="n">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="G26" t="n">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="H26" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1485,169 +1491,167 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>March 2022</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AX 11,31</t>
+          <t>BY 22,42</t>
         </is>
       </c>
       <c r="B27" t="n">
+        <v>200</v>
+      </c>
+      <c r="C27" t="n">
+        <v>180</v>
+      </c>
+      <c r="D27" t="n">
         <v>160</v>
       </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F27" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="G27" t="n">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="H27" t="n">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="I27" t="n">
-        <v>35</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AY 12,32</t>
+          <t>BZ 23,43</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="F28" t="n">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G28" t="n">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H28" t="n">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="I28" t="n">
-        <v>43</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,33</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F29" t="n">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="G29" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="H29" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="I29" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>BX 21,41</t>
+          <t>AY 12,32</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G30" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H30" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>March 2022</t>
         </is>
       </c>
     </row>
@@ -1658,25 +1662,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D31" t="n">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E31" t="n">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F31" t="n">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G31" t="n">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H31" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1686,42 +1690,44 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>March 2022</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>BZ 23,43</t>
+          <t>AX 11,31</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C32" t="n">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G32" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H32" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1732,7 +1738,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AX 11,31</t>
+          <t>AY 12,32</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1748,32 +1754,32 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="G33" t="n">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="H33" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I33" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AY 12,32</t>
+          <t>AZ 13,33</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1789,95 +1795,93 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G34" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H34" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I34" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,33</t>
+          <t>BX 21,41</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="F35" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G35" t="n">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="H35" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="I35" t="n">
-        <v>51</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>BX 21,41</t>
+          <t>BY 22,42</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>200</v>
       </c>
       <c r="C36" t="n">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="D36" t="n">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E36" t="n">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F36" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G36" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H36" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1887,36 +1891,36 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42</t>
+          <t>BZ 23,43</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>200</v>
       </c>
       <c r="C37" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D37" t="n">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E37" t="n">
         <v>117</v>
       </c>
       <c r="F37" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G37" t="n">
         <v>66</v>
       </c>
       <c r="H37" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1926,46 +1930,48 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>BZ 23,43</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C38" t="n">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="D38" t="n">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="E38" t="n">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="F38" t="n">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="G38" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H38" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
@@ -1988,25 +1994,25 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G39" t="n">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H39" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I39" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
@@ -2029,25 +2035,25 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G40" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H40" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I40" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
@@ -2070,25 +2076,25 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G41" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H41" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I41" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
@@ -2102,22 +2108,22 @@
         <v>200</v>
       </c>
       <c r="C42" t="n">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D42" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E42" t="n">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F42" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G42" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="H42" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -2127,7 +2133,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
@@ -2141,22 +2147,22 @@
         <v>200</v>
       </c>
       <c r="C43" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D43" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E43" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F43" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G43" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H43" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2166,7 +2172,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
@@ -2180,22 +2186,22 @@
         <v>200</v>
       </c>
       <c r="C44" t="n">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D44" t="n">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="E44" t="n">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F44" t="n">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="G44" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H44" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -2205,87 +2211,89 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>AY 12,32</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F45" t="n">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="G45" t="n">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="H45" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I45" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>March 2023</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42</t>
+          <t>AX 11,31</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C46" t="n">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G46" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H46" t="n">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>March 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
@@ -2308,105 +2316,105 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="G47" t="n">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H47" t="n">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I47" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>March 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42</t>
+          <t>AZ 13,33</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C48" t="n">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H48" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>March 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>AY 12,32</t>
+          <t>BX 21,41</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="F49" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="G49" t="n">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="H49" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="I49" t="n">
-        <v>48</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>March 2025</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
@@ -2420,30 +2428,350 @@
         <v>200</v>
       </c>
       <c r="C50" t="n">
+        <v>176</v>
+      </c>
+      <c r="D50" t="n">
+        <v>152</v>
+      </c>
+      <c r="E50" t="n">
+        <v>119</v>
+      </c>
+      <c r="F50" t="n">
+        <v>86</v>
+      </c>
+      <c r="G50" t="n">
+        <v>68</v>
+      </c>
+      <c r="H50" t="n">
+        <v>51</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>BZ 23,43</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>200</v>
+      </c>
+      <c r="C51" t="n">
+        <v>178</v>
+      </c>
+      <c r="D51" t="n">
+        <v>157</v>
+      </c>
+      <c r="E51" t="n">
+        <v>127</v>
+      </c>
+      <c r="F51" t="n">
+        <v>97</v>
+      </c>
+      <c r="G51" t="n">
+        <v>74</v>
+      </c>
+      <c r="H51" t="n">
+        <v>52</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>P1 50</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>90</v>
+      </c>
+      <c r="C52" t="n">
+        <v>77</v>
+      </c>
+      <c r="D52" t="n">
+        <v>67</v>
+      </c>
+      <c r="E52" t="n">
+        <v>57</v>
+      </c>
+      <c r="F52" t="n">
+        <v>47</v>
+      </c>
+      <c r="G52" t="n">
+        <v>38</v>
+      </c>
+      <c r="H52" t="n">
+        <v>30</v>
+      </c>
+      <c r="I52" t="n">
+        <v>21</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>AY 12,32</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>160</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>97</v>
+      </c>
+      <c r="G53" t="n">
+        <v>78</v>
+      </c>
+      <c r="H53" t="n">
+        <v>60</v>
+      </c>
+      <c r="I53" t="n">
+        <v>42</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>March 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>BY 22,42</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>200</v>
+      </c>
+      <c r="C54" t="n">
+        <v>172</v>
+      </c>
+      <c r="D54" t="n">
+        <v>145</v>
+      </c>
+      <c r="E54" t="n">
+        <v>114</v>
+      </c>
+      <c r="F54" t="n">
+        <v>84</v>
+      </c>
+      <c r="G54" t="n">
+        <v>63</v>
+      </c>
+      <c r="H54" t="n">
+        <v>43</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>March 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>AY 12,32</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>160</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>97</v>
+      </c>
+      <c r="G55" t="n">
+        <v>79</v>
+      </c>
+      <c r="H55" t="n">
+        <v>62</v>
+      </c>
+      <c r="I55" t="n">
+        <v>45</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>March 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>BY 22,42</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>200</v>
+      </c>
+      <c r="C56" t="n">
+        <v>181</v>
+      </c>
+      <c r="D56" t="n">
+        <v>162</v>
+      </c>
+      <c r="E56" t="n">
+        <v>132</v>
+      </c>
+      <c r="F56" t="n">
+        <v>103</v>
+      </c>
+      <c r="G56" t="n">
+        <v>86</v>
+      </c>
+      <c r="H56" t="n">
+        <v>70</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>March 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>AY 12,32</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>160</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>101</v>
+      </c>
+      <c r="G57" t="n">
+        <v>83</v>
+      </c>
+      <c r="H57" t="n">
+        <v>66</v>
+      </c>
+      <c r="I57" t="n">
+        <v>48</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>March 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>BY 22,42</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>200</v>
+      </c>
+      <c r="C58" t="n">
         <v>180</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D58" t="n">
         <v>161</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E58" t="n">
         <v>128</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F58" t="n">
         <v>95</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G58" t="n">
         <v>78</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H58" t="n">
         <v>62</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr">
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>March 2025</t>
         </is>
